--- a/result_1/Delegatecall.xlsx
+++ b/result_1/Delegatecall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61F0581-A839-4A13-A95D-A80AFA726C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6DEEF0-22D3-4327-A6CA-64F9693108B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +270,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,8 +301,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -609,618 +618,393 @@
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>19978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>229119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>63176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>79188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>5604</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>1578576</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>8917</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>43690</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>2904</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
-      </c>
-      <c r="B64">
-        <v>609</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>5</v>
-      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>50</v>
-      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>185</v>
-      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>142604</v>
-      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>1219</v>
-      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>206</v>
-      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>8740</v>
-      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>5</v>
-      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>6397</v>
-      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/result_1/Delegatecall.xlsx
+++ b/result_1/Delegatecall.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6DEEF0-22D3-4327-A6CA-64F9693108B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E325C-662C-4016-8912-50DC2774EE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -257,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,14 +270,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,9 +293,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -606,17 +597,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -938,73 +925,70 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/result_1/Delegatecall.xlsx
+++ b/result_1/Delegatecall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E325C-662C-4016-8912-50DC2774EE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D04B8B-51B2-421F-9D4A-4BC71B242D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
